--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_139.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_139.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,313 +488,340 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_92</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1402173913043478</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['E:7', 'A', 'A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(53.28, 65.12)]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(23.42, 33.96)]</t>
+          <t>[('0:00:24.631133', '0:00:29.751133')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:21.080000', '0:00:23.680000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86)]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[('0:01:24.160000', '0:01:32.420000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:34.060000', '0:01:45.580000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42), (25.48, 32.8)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(3.0, 5.28), (0.7, 3.78)]</t>
+          <t>[('0:02:03.220000', '0:02:07.180000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1641025641025641</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(111.46, 124.8)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(86.66, 96.12)]</t>
+          <t>[('0:00:40.080000', '0:00:42.280000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>[('0:00:18.240000', '0:00:29.100000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(36.28, 38.0)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[('0:00:17.360000', '0:00:20.120000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:07.020000', '0:00:15.100000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3506493506493507</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(18.64, 28.9)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(46.22, 48.94)]</t>
+          <t>[('0:00:16.240000', '0:00:18.880000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:03.100000', '0:01:04.320000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>schubert-winterreise_164</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>0.2666666666666667</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>[(96.74, 108.82)]</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(96.66, 106.3)]</t>
+          <t>[('0:01:49.440000', '0:02:03.140000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>[('0:01:24.160000', '0:01:32.420000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
@@ -798,268 +830,282 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(109.44, 123.14)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(93.3, 103.06)]</t>
+          <t>[('0:01:06.920000', '0:01:24.540000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.38, 5.3)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(14.9, 28.9)]</t>
+          <t>[('0:00:59.900000', '0:01:09.840000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:16.040000', '0:00:21')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(13.42, 53.02)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(14.52, 59.64)]</t>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:07.160000', '0:00:19.200000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1535714285714286</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:min/5', 'G:min/b7', 'Eb'], ['Eb', 'F', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:min', 'E:min/b7', 'C'], ['C', 'D', 'G']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(86.016643, 89.993773), (44.917324, 48.272607)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(107.586031, 111.022585), (6.126439, 9.980952)]</t>
+          <t>[('0:00:00.500000', '0:00:23.020000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+          <t>[('0:00:02.360000', '0:00:24.960000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_162</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>schubert-winterreise_76</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_127</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>1</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(10.2, 29.8)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(7.02, 24.78)]</t>
+          <t>[('0:00:55.560000', '0:01:00.520000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:46.060000', '0:00:51.040000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>[(5.44, 113.76)]</t>
-        </is>
-      </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(5.36, 110.76)]</t>
+          <t>[('0:00:04.760000', '0:01:58.780000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
+          <t>[('0:00:07.540000', '0:02:02.260000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
@@ -1068,137 +1114,86 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(84.16, 92.42)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(106.96, 119.34)]</t>
+          <t>[('0:00:00.580000', '0:00:38.340000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:01.600000', '0:00:41.420000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_268</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.115546218487395</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A', 'A', 'A'], ['G', 'A', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_56</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'A/b7'], ['G', 'A', 'A/b7']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(46.365011, 53.946326), (19.371814, 23.760385)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(36.173061, 41.86195), (43.998185, 47.539229)]</t>
+          <t>[('0:00:21.880000', '0:00:24.860000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:7DD7eSuYSC5xk2ArU62esN</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_69</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_22</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(96.66, 106.3)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(106.96, 119.34)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:54.780000', '0:00:57.520000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
